--- a/5th/1_1/data/1-1.xlsx
+++ b/5th/1_1/data/1-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/Class/ClassExperiment/5th/1_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB4B749-CFA1-E942-9D01-EE19892CA15E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5259EA88-F34D-8241-A06D-58D442CECB66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="880" windowWidth="26340" windowHeight="14900" xr2:uid="{BF469469-80EF-BB4B-A8E2-E66513E50EB9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{BF469469-80EF-BB4B-A8E2-E66513E50EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="3" r:id="rId1"/>
@@ -144,7 +144,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>e</t>
     </r>
@@ -173,19 +172,11 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>s</t>
     </r>
     <rPh sb="0" eb="3">
       <t>ヒトウジリテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>磁束</t>
-    <rPh sb="0" eb="2">
-      <t>ジソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,7 +220,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>e</t>
     </r>
@@ -258,7 +248,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>s</t>
     </r>
@@ -330,6 +319,16 @@
     <t>　　　　　　　　　　　　</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>磁束の読み[mWb]</t>
+    <rPh sb="0" eb="2">
+      <t>ジソク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -365,22 +364,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック (本文)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,12 +387,63 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -405,11 +452,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -424,8 +468,44 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1960,7 +2040,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>比透磁率μs</c:v>
+                  <c:v>励磁電流I0[mA]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1994,40 +2074,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>328.44424607959718</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>294.47945997262099</c:v>
+                  <c:v>270.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260.42363521982986</c:v>
+                  <c:v>240.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225.26165398989787</c:v>
+                  <c:v>210.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190.2933520940457</c:v>
+                  <c:v>180.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>155.161688967343</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.43344903976575</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.269598872143391</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.337898278950142</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.534162291451103</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.125825811461159</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.602431294766497</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,40 +2119,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>287.07468919064775</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>316.87315799917025</c:v>
+                  <c:v>270.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>354.56552534921906</c:v>
+                  <c:v>240.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>404.13766334755428</c:v>
+                  <c:v>210.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>469.8590981457786</c:v>
+                  <c:v>180.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>561.57641371287696</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>696.5160769724489</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>903.67587738490147</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1177.0771752714068</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1301.0590710445401</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1245.1040030798119</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>730.4587630254066</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,40 +2655,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.11848583277154705</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11726011726011724</c:v>
+                  <c:v>270.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11603440174868744</c:v>
+                  <c:v>240.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11440011440011438</c:v>
+                  <c:v>210.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11235725521439806</c:v>
+                  <c:v>180.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1094972523543952</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10541153398296255</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6831525402953963E-2</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8895221752364603E-2</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3001777287491567E-2</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0877612306183732E-2</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.523972952544381E-2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2620,40 +2700,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4507516134658991</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3783004203732776</c:v>
+                  <c:v>270.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3145078388278388</c:v>
+                  <c:v>240.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.287496249781964</c:v>
+                  <c:v>210.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2186889499389499</c:v>
+                  <c:v>180.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1272984057212627</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99739305075876494</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8069175492761208</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48907638651665791</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30947312464678178</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13076920460055816</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8653910866910876E-3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,12 +5644,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CE8CCF-90B9-A442-880C-CDD6E17304AF}">
   <dimension ref="A1:AO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView topLeftCell="AE1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3:AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="2" max="31" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5580,1631 +5662,1345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
     </row>
-    <row r="2" spans="1:41">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:41" ht="21" thickBot="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6" t="s">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+    </row>
+    <row r="3" spans="1:41" ht="21" thickBot="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s">
+      <c r="W3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="X3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="Y3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AI3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AI3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>50</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>4.28</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <f>B4+C4</f>
         <v>13.149999999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>7.29</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>8.85</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <f>E4+F4</f>
         <v>16.14</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>7.37</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>8.85</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <f>H4+I4</f>
         <v>16.22</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>7.4</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>8.85</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <f>K4+L4</f>
         <v>16.25</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>7.41</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>8.85</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
         <f>N4+O4</f>
         <v>16.259999999999998</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <v>7.41</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="6">
         <v>8.84</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="6">
         <f>Q4+R4</f>
         <v>16.25</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="6">
         <v>7.41</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="6">
         <v>8.83</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="6">
         <f>T4+U4</f>
         <v>16.240000000000002</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="6">
         <v>7.4</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="6">
         <v>8.82</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="6">
         <f>W4+X4</f>
         <v>16.22</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="6">
         <v>7.4</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="6">
         <v>8.82</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="6">
         <f>Z4+AA4</f>
         <v>16.22</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="6">
         <v>7.39</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="6">
         <v>8.81</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="6">
         <f>AC4+AD4</f>
         <v>16.2</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="6">
         <f>AVERAGE(D4,G4,J4,M4,P4,S4,V4,Y4,AB4,AE4)</f>
         <v>15.914999999999997</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="6">
         <f>AF4/2</f>
         <v>7.9574999999999987</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="2">
         <f t="shared" ref="AI4:AI15" si="0">A4*10^-3</f>
         <v>0.05</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ4" s="2">
         <f t="shared" ref="AJ4:AJ15" si="1">AG4</f>
         <v>7.9574999999999987</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AK4" s="4">
         <f>AJ4*10^-3/25</f>
         <v>3.1829999999999998E-4</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL4" s="2">
         <f>AI4*160/0.32</f>
         <v>25</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="1">
         <f>AK4/((30*10^-3)*(20*10^-3))</f>
         <v>0.53049999999999997</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AN4" s="3">
         <f>AM4/AL4</f>
         <v>2.1219999999999999E-2</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="2">
         <f>AN4/(4*PI()*10^-7)</f>
         <v>16886.339462050095</v>
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>100</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>5.49</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>13.66</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <f t="shared" ref="D5:D15" si="2">B5+C5</f>
         <v>19.149999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>6.86</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>13.53</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G15" si="3">E5+F5</f>
         <v>20.39</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>13.5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <f t="shared" ref="J5:J15" si="4">H5+I5</f>
         <v>20.5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>7.05</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>13.46</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <f t="shared" ref="M5:M15" si="5">K5+L5</f>
         <v>20.51</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>7.08</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>13.44</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <f t="shared" ref="P5:P15" si="6">N5+O5</f>
         <v>20.52</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>7.08</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="6">
         <v>13.45</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="6">
         <f t="shared" ref="S5:S15" si="7">Q5+R5</f>
         <v>20.53</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="6">
         <v>7.08</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="6">
         <v>13.44</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="6">
         <f t="shared" ref="V5:V15" si="8">T5+U5</f>
         <v>20.52</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="6">
         <v>7.08</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="6">
         <v>13.44</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="6">
         <f t="shared" ref="Y5:Y15" si="9">W5+X5</f>
         <v>20.52</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="6">
         <v>7.07</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="6">
         <v>13.43</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="6">
         <f t="shared" ref="AB5:AB15" si="10">Z5+AA5</f>
         <v>20.5</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="6">
         <v>7.07</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="6">
         <v>13.42</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="6">
         <f t="shared" ref="AE5:AE15" si="11">AC5+AD5</f>
         <v>20.490000000000002</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="6">
         <f t="shared" ref="AF5:AF15" si="12">AVERAGE(D5,G5,J5,M5,P5,S5,V5,Y5,AB5,AE5)</f>
         <v>20.363000000000003</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="6">
         <f t="shared" ref="AG5:AG15" si="13">AF5/2</f>
         <v>10.181500000000002</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="2">
         <f t="shared" si="1"/>
         <v>10.181500000000002</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" s="4">
         <f t="shared" ref="AK5:AK15" si="14">AJ5*10^-3/25</f>
         <v>4.0726000000000005E-4</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="2">
         <f t="shared" ref="AL5:AL15" si="15">AI5*160/0.32</f>
         <v>50</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="1">
         <f t="shared" ref="AM5:AM15" si="16">AJ5*(10^-3)/((30*10^-3)*(20*10^-3))/25</f>
         <v>0.67876666666666674</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="3">
         <f t="shared" ref="AN5:AN15" si="17">AM5/AL5</f>
         <v>1.3575333333333335E-2</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="2">
         <f t="shared" ref="AO5:AO15" si="18">AN5/(4*PI()*10^-7)</f>
         <v>10802.907020600884</v>
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>150</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>3.18</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>17.77</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <f t="shared" si="2"/>
         <v>20.95</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>3.39</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>17.68</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <f t="shared" si="3"/>
         <v>21.07</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>3.45</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>17.63</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <f t="shared" si="4"/>
         <v>21.08</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>3.49</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>17.600000000000001</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <f t="shared" si="5"/>
         <v>21.090000000000003</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <v>3.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>17.600000000000001</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <f t="shared" si="6"/>
         <v>21.1</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>3.51</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <v>17.559999999999999</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="6">
         <f t="shared" si="7"/>
         <v>21.07</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="6">
         <v>3.5</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="6">
         <v>17.53</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="6">
         <f t="shared" si="8"/>
         <v>21.03</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="6">
         <v>3.51</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="6">
         <v>17.53</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="6">
         <f t="shared" si="9"/>
         <v>21.04</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="6">
         <v>3.51</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="6">
         <v>17.5</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="6">
         <f t="shared" si="10"/>
         <v>21.009999999999998</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="6">
         <v>3.5</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="6">
         <v>17.47</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="6">
         <f t="shared" si="11"/>
         <v>20.97</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="6">
         <f t="shared" si="12"/>
         <v>21.040999999999997</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="6">
         <f t="shared" si="13"/>
         <v>10.520499999999998</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="2">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="2">
         <f t="shared" si="1"/>
         <v>10.520499999999998</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AK6" s="4">
         <f t="shared" si="14"/>
         <v>4.2081999999999992E-4</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL6" s="2">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="1">
         <f t="shared" si="16"/>
         <v>0.70136666666666669</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="3">
         <f t="shared" si="17"/>
         <v>9.3515555555555557E-3</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="2">
         <f t="shared" si="18"/>
         <v>7441.7314613257104</v>
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>200</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>0.19</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>20.55</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <f t="shared" si="2"/>
         <v>20.740000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.6</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>20.52</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <f t="shared" si="3"/>
         <v>21.12</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>0.62</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>20.47</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <f t="shared" si="4"/>
         <v>21.09</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>0.62</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>20.43</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <f t="shared" si="5"/>
         <v>21.05</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>0.64</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>20.39</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <f t="shared" si="6"/>
         <v>21.03</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>0.68</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="6">
         <v>20.36</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="6">
         <f t="shared" si="7"/>
         <v>21.04</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="6">
         <v>0.69</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="6">
         <v>20.34</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="6">
         <f t="shared" si="8"/>
         <v>21.03</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="6">
         <v>0.66</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="6">
         <v>20.309999999999999</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="6">
         <f t="shared" si="9"/>
         <v>20.97</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="6">
         <v>0.65</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="6">
         <v>20.329999999999998</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="6">
         <f t="shared" si="10"/>
         <v>20.979999999999997</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="6">
         <v>0.64</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="6">
         <v>20.32</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="6">
         <f t="shared" si="11"/>
         <v>20.96</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="6">
         <f t="shared" si="12"/>
         <v>21.000999999999998</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="6">
         <f t="shared" si="13"/>
         <v>10.500499999999999</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7" s="2">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="2">
         <f t="shared" si="1"/>
         <v>10.500499999999999</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7" s="4">
         <f t="shared" si="14"/>
         <v>4.2001999999999995E-4</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL7" s="2">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM7" s="1">
         <f t="shared" si="16"/>
         <v>0.70003333333333329</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="3">
         <f t="shared" si="17"/>
         <v>7.0003333333333332E-3</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="2">
         <f t="shared" si="18"/>
         <v>5570.688266454823</v>
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>300</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>3.68</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>24.87</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <f t="shared" si="2"/>
         <v>28.55</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>3.67</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>24.78</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <f t="shared" si="3"/>
         <v>28.450000000000003</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>3.7</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>24.73</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f t="shared" si="4"/>
         <v>28.43</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>3.73</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>24.68</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <f t="shared" si="5"/>
         <v>28.41</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <v>3.75</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>24.63</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <f t="shared" si="6"/>
         <v>28.38</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="6">
         <v>3.78</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="6">
         <v>24.59</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="6">
         <f t="shared" si="7"/>
         <v>28.37</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="6">
         <v>3.82</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="6">
         <v>24.55</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="6">
         <f t="shared" si="8"/>
         <v>28.37</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="6">
         <v>3.85</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="6">
         <v>24.5</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="6">
         <f t="shared" si="9"/>
         <v>28.35</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="6">
         <v>3.86</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="6">
         <v>24.46</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="6">
         <f t="shared" si="10"/>
         <v>28.32</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="6">
         <v>3.91</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="6">
         <v>24.43</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="6">
         <f t="shared" si="11"/>
         <v>28.34</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="6">
         <f t="shared" si="12"/>
         <v>28.396999999999998</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="6">
         <f t="shared" si="13"/>
         <v>14.198499999999999</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8" s="2">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AJ8" s="2">
         <f t="shared" si="1"/>
         <v>14.198499999999999</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AK8" s="4">
         <f t="shared" si="14"/>
         <v>5.6793999999999996E-4</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AL8" s="2">
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AM8" s="1">
         <f t="shared" si="16"/>
         <v>0.94656666666666667</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AN8" s="3">
         <f t="shared" si="17"/>
         <v>6.310444444444444E-3</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="2">
         <f t="shared" si="18"/>
         <v>5021.6921322006128</v>
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>400</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>6.37</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>26.92</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <f t="shared" si="2"/>
         <v>33.29</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>6.34</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>26.84</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <f t="shared" si="3"/>
         <v>33.18</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>6.38</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>26.79</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <f t="shared" si="4"/>
         <v>33.17</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>6.42</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>26.73</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <f t="shared" si="5"/>
         <v>33.15</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="6">
         <v>6.46</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>26.67</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <f t="shared" si="6"/>
         <v>33.130000000000003</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="6">
         <v>6.5</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="6">
         <v>26.6</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="6">
         <f t="shared" si="7"/>
         <v>33.1</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="6">
         <v>6.54</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="6">
         <v>26.56</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="6">
         <f t="shared" si="8"/>
         <v>33.1</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="6">
         <v>6.6</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="6">
         <v>26.51</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="6">
         <f t="shared" si="9"/>
         <v>33.11</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="6">
         <v>6.61</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="6">
         <v>26.46</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="6">
         <f t="shared" si="10"/>
         <v>33.07</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="6">
         <v>6.64</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="6">
         <v>26.43</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="6">
         <f t="shared" si="11"/>
         <v>33.07</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="6">
         <f t="shared" si="12"/>
         <v>33.136999999999993</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="6">
         <f t="shared" si="13"/>
         <v>16.568499999999997</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="2">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ9" s="2">
         <f t="shared" si="1"/>
         <v>16.568499999999997</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AK9" s="4">
         <f t="shared" si="14"/>
         <v>6.6273999999999988E-4</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AL9" s="2">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM9" s="1">
         <f t="shared" si="16"/>
         <v>1.1045666666666665</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AN9" s="3">
         <f t="shared" si="17"/>
         <v>5.5228333333333327E-3</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="2">
         <f t="shared" si="18"/>
         <v>4394.9311243634456</v>
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>500</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>27.79</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <f t="shared" si="2"/>
         <v>35.83</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>8.14</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>7</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <f t="shared" si="3"/>
         <v>15.14</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>28.9</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>6.98</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <f t="shared" si="4"/>
         <v>35.879999999999995</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>28.96</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>6.9</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <f t="shared" si="5"/>
         <v>35.86</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <v>29.01</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>6.88</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <f t="shared" si="6"/>
         <v>35.89</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="6">
         <v>29.06</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="6">
         <v>6.85</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="6">
         <f t="shared" si="7"/>
         <v>35.909999999999997</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="6">
         <v>29.09</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="6">
         <v>6.8</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="6">
         <f t="shared" si="8"/>
         <v>35.89</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="6">
         <v>29.13</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="6">
         <v>1.94</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="6">
         <f t="shared" si="9"/>
         <v>31.07</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="6">
         <v>33.979999999999997</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="6">
         <v>1.92</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="6">
         <f t="shared" si="10"/>
         <v>35.9</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="6">
         <v>34.03</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="6">
         <v>1.87</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="6">
         <f t="shared" si="11"/>
         <v>35.9</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="6">
         <f t="shared" si="12"/>
         <v>33.326999999999991</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="6">
         <f t="shared" si="13"/>
         <v>16.663499999999996</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI10" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ10" s="2">
         <f t="shared" si="1"/>
         <v>16.663499999999996</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AK10" s="4">
         <f t="shared" si="14"/>
         <v>6.6653999999999975E-4</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AL10" s="2">
         <f t="shared" si="15"/>
         <v>250</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AM10" s="1">
         <f t="shared" si="16"/>
         <v>1.1108999999999998</v>
       </c>
-      <c r="AN10" s="4">
+      <c r="AN10" s="3">
         <f t="shared" si="17"/>
         <v>4.4435999999999989E-3</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AO10" s="2">
         <f t="shared" si="18"/>
         <v>3536.1045256157299</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
-      <c r="A11">
+    <row r="11" spans="1:41" ht="21" thickBot="1">
+      <c r="A11" s="9">
         <v>600</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>12.52</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>24.94</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <f t="shared" si="2"/>
         <v>37.46</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>12.61</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>24.88</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <f t="shared" si="3"/>
         <v>37.489999999999995</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>12.67</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>24.83</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="9">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="9">
         <v>12.71</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9">
         <f t="shared" si="5"/>
         <v>12.71</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF11">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9">
         <f>AVERAGE(D11,G11,J11)</f>
         <v>37.483333333333327</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="9">
         <f t="shared" si="13"/>
         <v>18.741666666666664</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11" s="13">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ11" s="13">
         <f t="shared" si="1"/>
         <v>18.741666666666664</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AK11" s="14">
         <f t="shared" si="14"/>
         <v>7.4966666666666649E-4</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL11" s="13">
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11" s="15">
         <f t="shared" si="16"/>
         <v>1.2494444444444444</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AN11" s="16">
         <f t="shared" si="17"/>
         <v>4.1648148148148148E-3</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="13">
         <f t="shared" si="18"/>
         <v>3314.2543242006723</v>
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12">
-        <v>700</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="AJ12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3">
-        <f t="shared" si="15"/>
-        <v>350.00000000000006</v>
-      </c>
-      <c r="AM12" s="2">
-        <f>AJ12*(10^-3)/((30*10^-3)*(20*10^-3))/25</f>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="2"/>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13">
-        <v>800</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="AJ13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="3">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="AM13" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="2"/>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14">
-        <v>900</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="AJ14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="3">
-        <f t="shared" si="15"/>
-        <v>450</v>
-      </c>
-      <c r="AM14" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="2"/>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15">
-        <v>1000</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="3">
-        <f t="shared" si="15"/>
-        <v>500</v>
-      </c>
-      <c r="AM15" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7233,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9EA7F2-9247-824A-B6F3-85BC858DB314}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7251,44 +7047,50 @@
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="21" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" thickBot="1">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7302,7 +7104,7 @@
         <f>15*0.2</f>
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>SQRT((A3*10^-3)^2-(C3/B3)^2)</f>
         <v>0.29150965005655877</v>
       </c>
@@ -7338,7 +7140,7 @@
         <f>14.5*0.2</f>
         <v>2.9000000000000004</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D15" si="2">SQRT((A4*10^-3)^2-(C4/B4)^2)</f>
         <v>0.2636376673988487</v>
       </c>
@@ -7374,7 +7176,7 @@
         <f>14*0.2</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="2"/>
         <v>0.2342671353813677</v>
       </c>
@@ -7410,7 +7212,7 @@
         <f>13.5*0.2</f>
         <v>2.7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="2"/>
         <v>0.20115620291606204</v>
       </c>
@@ -7446,7 +7248,7 @@
         <f>13*0.2</f>
         <v>2.6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="2"/>
         <v>0.17032794119004699</v>
       </c>
@@ -7482,7 +7284,7 @@
         <f>12*0.2</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="2"/>
         <v>0.14015302820532435</v>
       </c>
@@ -7518,7 +7320,7 @@
         <f>11*0.2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="2"/>
         <v>0.1086579498637219</v>
       </c>
@@ -7554,7 +7356,7 @@
         <f>9*0.2</f>
         <v>1.8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="2"/>
         <v>7.7942286340599479E-2</v>
       </c>
@@ -7590,7 +7392,7 @@
         <f>6*0.2</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>4.78830042550469E-2</v>
       </c>
@@ -7626,7 +7428,7 @@
         <f>3.5*0.2</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>3.6692325163691586E-2</v>
       </c>
@@ -7662,7 +7464,7 @@
         <f>1.5*0.2</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>2.4798891940264713E-2</v>
       </c>
@@ -7698,7 +7500,7 @@
         <f>0.1*0.2</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>1.4692605777840768E-2</v>
       </c>
@@ -7723,79 +7525,85 @@
         <v>4.8974086691086702E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
+    <row r="15" spans="1:9" ht="21" thickBot="1">
+      <c r="A15" s="9">
         <v>0.03</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="15">
         <f t="shared" si="2"/>
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <f>SQRT(2)*D15*700/0.88</f>
         <v>3.3748278192994315E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>5.3931482502911062E-5</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
         <f t="shared" si="6"/>
         <v>1.5980513789324666E-3</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <f t="shared" si="4"/>
         <v>1271.6888813596081</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
         <v>-4.223286237571951E-8</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" ht="21" thickBot="1">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9">
+        <v>60</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" thickBot="1">
+      <c r="A19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
+      <c r="B19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7803,35 +7611,28 @@
         <v>300</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="C20">
-        <f>20*0.2</f>
-        <v>4</v>
-      </c>
-      <c r="D20" s="2">
-        <f>SQRT((A20*10^-3)^2-(C20/B20)^2)</f>
-        <v>0.29196533601033703</v>
+        <v>300</v>
+      </c>
+      <c r="D20">
+        <v>300</v>
       </c>
       <c r="E20">
-        <f>SQRT(2)*D20*700/0.88</f>
-        <v>328.44424607959718</v>
+        <v>300</v>
       </c>
       <c r="F20">
-        <f>B20/(4.44*$B$18*700*2625*10^-6)</f>
-        <v>0.11848583277154705</v>
+        <v>300</v>
       </c>
       <c r="G20">
-        <f>F20/E20</f>
-        <v>3.607486938371649E-4</v>
+        <v>300</v>
       </c>
       <c r="H20">
-        <f>G20/(4*PI()*10^-7)</f>
-        <v>287.07468919064775</v>
+        <v>300</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I32" si="7">(C20-B20^2*(10^-1*10^-6 + 5^-1*10^-3) )/2.2932</f>
-        <v>1.4507516134658991</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7839,35 +7640,28 @@
         <v>270.10000000000002</v>
       </c>
       <c r="B21">
-        <v>57.4</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="C21">
-        <f>19.1*0.2</f>
-        <v>3.8200000000000003</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" ref="D21:D32" si="8">SQRT((A21*10^-3)^2-(C21/B21)^2)</f>
-        <v>0.26177287471253952</v>
+        <v>270.10000000000002</v>
+      </c>
+      <c r="D21">
+        <v>270.10000000000002</v>
       </c>
       <c r="E21">
-        <f>SQRT(2)*D21*700/0.88</f>
-        <v>294.47945997262099</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F32" si="9">B21/(4.44*$B$18*700*2625*10^-6)</f>
-        <v>0.11726011726011724</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G28" si="10">F21/E21</f>
-        <v>3.9819455411599646E-4</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H32" si="11">G21/(4*PI()*10^-7)</f>
-        <v>316.87315799917025</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
-        <v>1.3783004203732776</v>
+        <v>270.10000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7875,35 +7669,28 @@
         <v>240.3</v>
       </c>
       <c r="B22">
-        <v>56.8</v>
+        <v>240.3</v>
       </c>
       <c r="C22">
-        <f>18.3*0.2</f>
-        <v>3.66</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="8"/>
-        <v>0.23149948604538612</v>
+        <v>240.3</v>
+      </c>
+      <c r="D22">
+        <v>240.3</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E32" si="12">SQRT(2)*D22*700/0.88</f>
-        <v>260.42363521982986</v>
+        <v>240.3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="9"/>
-        <v>0.11603440174868744</v>
+        <v>240.3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="10"/>
-        <v>4.4556017986132485E-4</v>
+        <v>240.3</v>
       </c>
       <c r="H22">
-        <f t="shared" si="11"/>
-        <v>354.56552534921906</v>
+        <v>240.3</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
-        <v>1.3145078388278388</v>
+        <v>240.3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7911,35 +7698,28 @@
         <v>210.2</v>
       </c>
       <c r="B23">
-        <v>56</v>
+        <v>210.2</v>
       </c>
       <c r="C23">
-        <f>17.9*0.2</f>
-        <v>3.58</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="8"/>
-        <v>0.20024279701178277</v>
+        <v>210.2</v>
+      </c>
+      <c r="D23">
+        <v>210.2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="12"/>
-        <v>225.26165398989787</v>
+        <v>210.2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="9"/>
-        <v>0.11440011440011438</v>
+        <v>210.2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="10"/>
-        <v>5.0785436568464865E-4</v>
+        <v>210.2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="11"/>
-        <v>404.13766334755428</v>
+        <v>210.2</v>
       </c>
       <c r="I23">
-        <f t="shared" si="7"/>
-        <v>1.287496249781964</v>
+        <v>210.2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7947,35 +7727,28 @@
         <v>180.1</v>
       </c>
       <c r="B24">
-        <v>55</v>
+        <v>180.1</v>
       </c>
       <c r="C24">
-        <f>17*0.2</f>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="8"/>
-        <v>0.16915827616966961</v>
+        <v>180.1</v>
+      </c>
+      <c r="D24">
+        <v>180.1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="12"/>
-        <v>190.2933520940457</v>
+        <v>180.1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="9"/>
-        <v>0.11235725521439806</v>
+        <v>180.1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="10"/>
-        <v>5.9044235638284147E-4</v>
+        <v>180.1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="11"/>
-        <v>469.8590981457786</v>
+        <v>180.1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
-        <v>1.2186889499389499</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7983,35 +7756,28 @@
         <v>150</v>
       </c>
       <c r="B25">
-        <v>53.6</v>
+        <v>150</v>
       </c>
       <c r="C25">
-        <f>15.8*0.2</f>
-        <v>3.16</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="8"/>
-        <v>0.13792853793609458</v>
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
       </c>
       <c r="E25">
-        <f t="shared" si="12"/>
-        <v>155.161688967343</v>
+        <v>150</v>
       </c>
       <c r="F25">
-        <f t="shared" si="9"/>
-        <v>0.1094972523543952</v>
+        <v>150</v>
       </c>
       <c r="G25">
-        <f t="shared" si="10"/>
-        <v>7.0569773429987072E-4</v>
+        <v>150</v>
       </c>
       <c r="H25">
-        <f t="shared" si="11"/>
-        <v>561.57641371287696</v>
+        <v>150</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
-        <v>1.1272984057212627</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -8019,35 +7785,28 @@
         <v>120.2</v>
       </c>
       <c r="B26">
-        <v>51.6</v>
+        <v>120.2</v>
       </c>
       <c r="C26">
-        <f>14.1*0.2</f>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="8"/>
-        <v>0.10705741639711217</v>
+        <v>120.2</v>
+      </c>
+      <c r="D26">
+        <v>120.2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="12"/>
-        <v>120.43344903976575</v>
+        <v>120.2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="9"/>
-        <v>0.10541153398296255</v>
+        <v>120.2</v>
       </c>
       <c r="G26">
-        <f t="shared" si="10"/>
-        <v>8.7526791620953131E-4</v>
+        <v>120.2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="11"/>
-        <v>696.5160769724489</v>
+        <v>120.2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="7"/>
-        <v>0.99739305075876494</v>
+        <v>120.2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -8055,35 +7814,28 @@
         <v>90</v>
       </c>
       <c r="B27">
-        <v>47.4</v>
+        <v>90</v>
       </c>
       <c r="C27">
-        <f>11.5*0.2</f>
-        <v>2.3000000000000003</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="8"/>
-        <v>7.5799066000804938E-2</v>
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
       </c>
       <c r="E27">
-        <f t="shared" si="12"/>
-        <v>85.269598872143391</v>
+        <v>90</v>
       </c>
       <c r="F27">
-        <f t="shared" si="9"/>
-        <v>9.6831525402953963E-2</v>
+        <v>90</v>
       </c>
       <c r="G27">
-        <f t="shared" si="10"/>
-        <v>1.1355925990474869E-3</v>
+        <v>90</v>
       </c>
       <c r="H27">
-        <f t="shared" si="11"/>
-        <v>903.67587738490147</v>
+        <v>90</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
-        <v>0.8069175492761208</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -8091,35 +7843,28 @@
         <v>60</v>
       </c>
       <c r="B28">
-        <v>38.619999999999997</v>
+        <v>60</v>
       </c>
       <c r="C28">
-        <f>7.1*0.2</f>
-        <v>1.42</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="8"/>
-        <v>4.7413884027442649E-2</v>
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
       </c>
       <c r="E28">
-        <f t="shared" si="12"/>
-        <v>53.337898278950142</v>
+        <v>60</v>
       </c>
       <c r="F28">
-        <f t="shared" si="9"/>
-        <v>7.8895221752364603E-2</v>
+        <v>60</v>
       </c>
       <c r="G28">
-        <f t="shared" si="10"/>
-        <v>1.4791588026163507E-3</v>
+        <v>60</v>
       </c>
       <c r="H28">
-        <f t="shared" si="11"/>
-        <v>1177.0771752714068</v>
+        <v>60</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
-        <v>0.48907638651665791</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -8127,35 +7872,28 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>30.84</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <f>4.5*0.2</f>
-        <v>0.9</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="8"/>
-        <v>3.4254336239989518E-2</v>
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
       </c>
       <c r="E29">
-        <f t="shared" si="12"/>
-        <v>38.534162291451103</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <f t="shared" si="9"/>
-        <v>6.3001777287491567E-2</v>
+        <v>45</v>
       </c>
       <c r="G29">
-        <f>F29/E29</f>
-        <v>1.6349590477919554E-3</v>
+        <v>45</v>
       </c>
       <c r="H29">
-        <f t="shared" si="11"/>
-        <v>1301.0590710445401</v>
+        <v>45</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
-        <v>0.30947312464678178</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8163,35 +7901,28 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>20.010000000000002</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <f>1.9*0.2</f>
-        <v>0.38</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="8"/>
-        <v>2.3224141091338281E-2</v>
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
       </c>
       <c r="E30">
-        <f t="shared" si="12"/>
-        <v>26.125825811461159</v>
+        <v>30</v>
       </c>
       <c r="F30">
-        <f t="shared" si="9"/>
-        <v>4.0877612306183732E-2</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G32" si="13">F30/E30</f>
-        <v>1.5646438356123121E-3</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <f t="shared" si="11"/>
-        <v>1245.1040030798119</v>
+        <v>30</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
-        <v>0.13076920460055816</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -8199,75 +7930,62 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>7.46</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <f>0.1*0.2</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4758469631982235E-2</v>
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
       </c>
       <c r="E31">
-        <f t="shared" si="12"/>
-        <v>16.602431294766497</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <f t="shared" si="9"/>
-        <v>1.523972952544381E-2</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <f t="shared" si="13"/>
-        <v>9.17921553468362E-4</v>
+        <v>15</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
-        <v>730.4587630254066</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
-        <v>3.8653910866910876E-3</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
+    <row r="32" spans="1:9" ht="21" thickBot="1">
+      <c r="A32" s="9">
         <v>0.02</v>
       </c>
-      <c r="B32">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="8"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="12"/>
-        <v>2.2498852128662879E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="9"/>
-        <v>4.698576127147555E-5</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="13"/>
-        <v>2.0883625974685645E-3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="11"/>
-        <v>1661.8661517767605</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="7"/>
-        <v>-4.6159471480900049E-8</v>
+      <c r="B32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.02</v>
       </c>
     </row>
     <row r="51" spans="12:12">
       <c r="L51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/5th/1_1/data/1-1.xlsx
+++ b/5th/1_1/data/1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/Class/ClassExperiment/5th/1_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5259EA88-F34D-8241-A06D-58D442CECB66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537B4621-9E7D-DD49-B225-C678348789B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{BF469469-80EF-BB4B-A8E2-E66513E50EB9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>電流I[mA]</t>
     <rPh sb="0" eb="2">
@@ -329,6 +329,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>jh</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -364,17 +368,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック (本文)"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック (本文)"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
     </font>
@@ -387,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -410,17 +414,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -468,29 +461,14 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -504,7 +482,22 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,39 +1218,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10528527401179043"/>
+          <c:y val="3.9419503370692034E-2"/>
+          <c:w val="0.78689278980366317"/>
+          <c:h val="0.8172012765787644"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1562,6 +1535,7 @@
         <c:axId val="497892735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1579,6 +1553,837 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>磁界最大値</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" altLang="ja-JP"/>
+                  <a:t>Hm[A/m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503450095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503450095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>最大磁束密度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" altLang="ja-JP"/>
+                  <a:t>Bm[T]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497892735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497436303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>比透磁率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ja-JP"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" altLang="ja-JP"/>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497353887"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497353887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="497436303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68764102657859649"/>
+          <c:y val="4.1930060064445919E-2"/>
+          <c:w val="0.20201350066914703"/>
+          <c:h val="0.11951273441270691"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11484540607064242"/>
+          <c:y val="3.9260971924048989E-2"/>
+          <c:w val="0.85426869834680186"/>
+          <c:h val="0.78612297480693405"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>50Hz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.2'!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1188944046086903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11742354599497454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11619783048354475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11448182876754304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11252068394925535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11006925292639576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10590182018753447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8057240914383753E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1362995648709913E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5869951584237293E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3561929276214981E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6228473371330512E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.2'!$I$3:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1029630102040815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0644028253096112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0249534815977674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98709397828362111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94995086298622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87065951465201474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79651376940519791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64531658817373105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42716493214285717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24225031410692482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8974086691086702E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F55-5B4A-8E38-47A702490A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>60Hz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.2'!$F$20:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.118485833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.117260117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11603440199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114400114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.112357255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.109497252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105411534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6831525000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8895222000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3001776999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0877612000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.523973E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.2'!$I$20:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.450751613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.37830042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.314507839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28749625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21868895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.127298406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99739305099999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80691754900000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.489076387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30947312500000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.130769205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8653910000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4F55-5B4A-8E38-47A702490A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497892735"/>
+        <c:axId val="503450095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497892735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>最大磁束密度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" altLang="ja-JP"/>
+                  <a:t>Bm[T]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40367226167026643"/>
+              <c:y val="0.90862844871946558"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1641,6 +2446,734 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>鉄損</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" altLang="ja-JP"/>
+                  <a:t>Wi[W/kg]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497892735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88470718158589312"/>
+          <c:y val="5.4298177104923483E-2"/>
+          <c:w val="7.5123818150623328E-2"/>
+          <c:h val="0.12046064333472636"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10528527401179043"/>
+          <c:y val="3.9419503370692034E-2"/>
+          <c:w val="0.78689278980366317"/>
+          <c:h val="0.81798424154156135"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.2'!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>最大磁束密度Bm[T]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.2'!$E$20:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>328.44424609999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294.47946000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260.42363519999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225.26165399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.29335209999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155.161689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.433449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.269598869999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.337898279999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.534162289999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.125825809999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.602431289999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2498852E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.2'!$F$20:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.118485833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.117260117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11603440199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114400114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.112357255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.109497252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105411534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6831525000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8895222000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3001776999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0877612000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.523973E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>4.69858E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B9A-7A47-A388-35F1580233EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497892735"/>
+        <c:axId val="503450095"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.2'!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>比透磁率μs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.2'!$E$20:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>328.44424609999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294.47946000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260.42363519999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225.26165399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.29335209999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155.161689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.433449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.269598869999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.337898279999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.534162289999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.125825809999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.602431289999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.2'!$H$20:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>287.07468920000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316.87315799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354.56552529999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>404.13766329999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>469.85909809999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>561.57641369999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>696.516077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>903.67587739999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1177.0771749999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1301.0590709999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1245.1040029999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>730.45876299999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B9A-7A47-A388-35F1580233EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497353887"/>
+        <c:axId val="497436303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497892735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>磁界最大値</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" altLang="ja-JP"/>
+                  <a:t>Hm[A/m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503450095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503450095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>最大磁束密度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" altLang="ja-JP"/>
+                  <a:t>Bm[T]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1686,9 +3219,74 @@
         <c:axId val="497436303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>比透磁率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ja-JP"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en" altLang="ja-JP"/>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1748,18 +3346,38 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68764102657859649"/>
+          <c:y val="4.1930060064445919E-2"/>
+          <c:w val="0.20316410536245899"/>
+          <c:h val="0.12098405604306368"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1800,1147 +3418,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4.2'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>最大磁束密度Bm[T]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4.2'!$E$3:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>327.9316255350389</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>296.57724471761509</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>263.53708187754199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>226.28918320858921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>191.60915811072269</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>157.6641128487955</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>122.23395732937719</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>87.680598747352406</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.865631610521781</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41.276759905735645</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.897330135935267</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.528338239018865</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.3748278192994315E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4.2'!$F$3:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.1188944046086903</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11742354599497454</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11619783048354475</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11448182876754304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11252068394925535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11006925292639576</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10590182018753447</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.8057240914383753E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.1362995648709913E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5869951584237293E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.3561929276214981E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6228473371330512E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.3931482502911062E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A122-4B46-84DE-59368191FD9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="497892735"/>
-        <c:axId val="503450095"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4.2'!$H$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>励磁電流I0[mA]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4.2'!$E$20:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4.2'!$H$20:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A122-4B46-84DE-59368191FD9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="497353887"/>
-        <c:axId val="497436303"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="497892735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="503450095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="503450095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="497892735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="497436303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="497353887"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="497353887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497436303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>50Hz</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4.2'!$F$3:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1188944046086903</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11742354599497454</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11619783048354475</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11448182876754304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11252068394925535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11006925292639576</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10590182018753447</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.8057240914383753E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.1362995648709913E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5869951584237293E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.3561929276214981E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6228473371330512E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4.2'!$I$3:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.1029630102040815</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0644028253096112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0249534815977674</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98709397828362111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94995086298622</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.87065951465201474</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79651376940519791</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64531658817373105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.42716493214285717</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24225031410692482</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10326785396389326</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.8974086691086702E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4F55-5B4A-8E38-47A702490A2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>60Hz</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'4.2'!$F$20:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'4.2'!$I$20:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4F55-5B4A-8E38-47A702490A2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="497892735"/>
-        <c:axId val="503450095"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="497892735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="503450095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="503450095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="497892735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5270,21 +5748,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>18677</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>2241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E90724-D4B8-6E4A-A364-D859B9C2AA4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A02E8-CB11-3649-AF9E-2D8BA3F6EA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5308,21 +5786,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>18677</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>2241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5">
+        <xdr:cNvPr id="7" name="グラフ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A02E8-CB11-3649-AF9E-2D8BA3F6EA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15FC983-5DDA-BA4A-83F6-059EBAFA455E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5644,7 +6122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CE8CCF-90B9-A442-880C-CDD6E17304AF}">
   <dimension ref="A1:AO15"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="144" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="144" workbookViewId="0">
       <selection activeCell="AI3" sqref="AI3:AO11"/>
     </sheetView>
   </sheetViews>
@@ -5662,344 +6140,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
     </row>
     <row r="2" spans="1:41" ht="21" thickBot="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="5" t="s">
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
     <row r="3" spans="1:41" ht="21" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AI3" s="9" t="s">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AI3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AL3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AN3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>50</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>4.28</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>B4+C4</f>
         <v>13.149999999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>7.29</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>8.85</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>E4+F4</f>
         <v>16.14</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>7.37</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>8.85</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f>H4+I4</f>
         <v>16.22</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>7.4</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>8.85</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>K4+L4</f>
         <v>16.25</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>7.41</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>8.85</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <f>N4+O4</f>
         <v>16.259999999999998</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>7.41</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>8.84</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <f>Q4+R4</f>
         <v>16.25</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>7.41</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>8.83</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <f>T4+U4</f>
         <v>16.240000000000002</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>7.4</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>8.82</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <f>W4+X4</f>
         <v>16.22</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="5">
         <v>7.4</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <v>8.82</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <f>Z4+AA4</f>
         <v>16.22</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="5">
         <v>7.39</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="5">
         <v>8.81</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="5">
         <f>AC4+AD4</f>
         <v>16.2</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="5">
         <f>AVERAGE(D4,G4,J4,M4,P4,S4,V4,Y4,AB4,AE4)</f>
         <v>15.914999999999997</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="5">
         <f>AF4/2</f>
         <v>7.9574999999999987</v>
       </c>
       <c r="AI4" s="2">
-        <f t="shared" ref="AI4:AI15" si="0">A4*10^-3</f>
+        <f t="shared" ref="AI4:AI11" si="0">A4*10^-3</f>
         <v>0.05</v>
       </c>
       <c r="AJ4" s="2">
-        <f t="shared" ref="AJ4:AJ15" si="1">AG4</f>
+        <f t="shared" ref="AJ4:AJ11" si="1">AG4</f>
         <v>7.9574999999999987</v>
       </c>
       <c r="AK4" s="4">
@@ -6024,115 +6502,115 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>100</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>5.49</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>13.66</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" ref="D5:D15" si="2">B5+C5</f>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D11" si="2">B5+C5</f>
         <v>19.149999999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>6.86</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>13.53</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G15" si="3">E5+F5</f>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G11" si="3">E5+F5</f>
         <v>20.39</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>7</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>13.5</v>
       </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5:J15" si="4">H5+I5</f>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J11" si="4">H5+I5</f>
         <v>20.5</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>7.05</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>13.46</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" ref="M5:M15" si="5">K5+L5</f>
+      <c r="M5" s="5">
+        <f t="shared" ref="M5:M11" si="5">K5+L5</f>
         <v>20.51</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>7.08</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>13.44</v>
       </c>
-      <c r="P5" s="6">
-        <f t="shared" ref="P5:P15" si="6">N5+O5</f>
+      <c r="P5" s="5">
+        <f t="shared" ref="P5:P10" si="6">N5+O5</f>
         <v>20.52</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>7.08</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>13.45</v>
       </c>
-      <c r="S5" s="6">
-        <f t="shared" ref="S5:S15" si="7">Q5+R5</f>
+      <c r="S5" s="5">
+        <f t="shared" ref="S5:S10" si="7">Q5+R5</f>
         <v>20.53</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>7.08</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>13.44</v>
       </c>
-      <c r="V5" s="6">
-        <f t="shared" ref="V5:V15" si="8">T5+U5</f>
+      <c r="V5" s="5">
+        <f t="shared" ref="V5:V10" si="8">T5+U5</f>
         <v>20.52</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <v>7.08</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <v>13.44</v>
       </c>
-      <c r="Y5" s="6">
-        <f t="shared" ref="Y5:Y15" si="9">W5+X5</f>
+      <c r="Y5" s="5">
+        <f t="shared" ref="Y5:Y10" si="9">W5+X5</f>
         <v>20.52</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="5">
         <v>7.07</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="5">
         <v>13.43</v>
       </c>
-      <c r="AB5" s="6">
-        <f t="shared" ref="AB5:AB15" si="10">Z5+AA5</f>
+      <c r="AB5" s="5">
+        <f t="shared" ref="AB5:AB10" si="10">Z5+AA5</f>
         <v>20.5</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="5">
         <v>7.07</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="5">
         <v>13.42</v>
       </c>
-      <c r="AE5" s="6">
-        <f t="shared" ref="AE5:AE15" si="11">AC5+AD5</f>
+      <c r="AE5" s="5">
+        <f t="shared" ref="AE5:AE10" si="11">AC5+AD5</f>
         <v>20.490000000000002</v>
       </c>
-      <c r="AF5" s="6">
-        <f t="shared" ref="AF5:AF15" si="12">AVERAGE(D5,G5,J5,M5,P5,S5,V5,Y5,AB5,AE5)</f>
+      <c r="AF5" s="5">
+        <f t="shared" ref="AF5:AF10" si="12">AVERAGE(D5,G5,J5,M5,P5,S5,V5,Y5,AB5,AE5)</f>
         <v>20.363000000000003</v>
       </c>
-      <c r="AG5" s="6">
-        <f t="shared" ref="AG5:AG15" si="13">AF5/2</f>
+      <c r="AG5" s="5">
+        <f t="shared" ref="AG5:AG11" si="13">AF5/2</f>
         <v>10.181500000000002</v>
       </c>
       <c r="AI5" s="2">
@@ -6144,135 +6622,135 @@
         <v>10.181500000000002</v>
       </c>
       <c r="AK5" s="4">
-        <f t="shared" ref="AK5:AK15" si="14">AJ5*10^-3/25</f>
+        <f t="shared" ref="AK5:AK11" si="14">AJ5*10^-3/25</f>
         <v>4.0726000000000005E-4</v>
       </c>
       <c r="AL5" s="2">
-        <f t="shared" ref="AL5:AL15" si="15">AI5*160/0.32</f>
+        <f t="shared" ref="AL5:AL11" si="15">AI5*160/0.32</f>
         <v>50</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" ref="AM5:AM15" si="16">AJ5*(10^-3)/((30*10^-3)*(20*10^-3))/25</f>
+        <f t="shared" ref="AM5:AM11" si="16">AJ5*(10^-3)/((30*10^-3)*(20*10^-3))/25</f>
         <v>0.67876666666666674</v>
       </c>
       <c r="AN5" s="3">
-        <f t="shared" ref="AN5:AN15" si="17">AM5/AL5</f>
+        <f t="shared" ref="AN5:AN11" si="17">AM5/AL5</f>
         <v>1.3575333333333335E-2</v>
       </c>
       <c r="AO5" s="2">
-        <f t="shared" ref="AO5:AO15" si="18">AN5/(4*PI()*10^-7)</f>
+        <f t="shared" ref="AO5:AO11" si="18">AN5/(4*PI()*10^-7)</f>
         <v>10802.907020600884</v>
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>150</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3.18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>17.77</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f t="shared" si="2"/>
         <v>20.95</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3.39</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>17.68</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f t="shared" si="3"/>
         <v>21.07</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>3.45</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>17.63</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="4"/>
         <v>21.08</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>3.49</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <f t="shared" si="5"/>
         <v>21.090000000000003</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>3.5</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <f t="shared" si="6"/>
         <v>21.1</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>3.51</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>17.559999999999999</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <f t="shared" si="7"/>
         <v>21.07</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>3.5</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>17.53</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <f t="shared" si="8"/>
         <v>21.03</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>3.51</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <v>17.53</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <f t="shared" si="9"/>
         <v>21.04</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="5">
         <v>3.51</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="5">
         <v>17.5</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="5">
         <f t="shared" si="10"/>
         <v>21.009999999999998</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="5">
         <v>3.5</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="5">
         <v>17.47</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="5">
         <f t="shared" si="11"/>
         <v>20.97</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="5">
         <f t="shared" si="12"/>
         <v>21.040999999999997</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="5">
         <f t="shared" si="13"/>
         <v>10.520499999999998</v>
       </c>
@@ -6306,114 +6784,114 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>200</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.19</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>20.55</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
         <v>20.740000000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.6</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>20.52</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f t="shared" si="3"/>
         <v>21.12</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.62</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>20.47</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="4"/>
         <v>21.09</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>0.62</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>20.43</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f t="shared" si="5"/>
         <v>21.05</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>0.64</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>20.39</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <f t="shared" si="6"/>
         <v>21.03</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>0.68</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>20.36</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <f t="shared" si="7"/>
         <v>21.04</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>0.69</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>20.34</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <f t="shared" si="8"/>
         <v>21.03</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>0.66</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <v>20.309999999999999</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="5">
         <f t="shared" si="9"/>
         <v>20.97</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="5">
         <v>0.65</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="5">
         <v>20.329999999999998</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="5">
         <f t="shared" si="10"/>
         <v>20.979999999999997</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC7" s="5">
         <v>0.64</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="5">
         <v>20.32</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="5">
         <f t="shared" si="11"/>
         <v>20.96</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="5">
         <f t="shared" si="12"/>
         <v>21.000999999999998</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7" s="5">
         <f t="shared" si="13"/>
         <v>10.500499999999999</v>
       </c>
@@ -6447,114 +6925,114 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>300</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3.68</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>24.87</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f t="shared" si="2"/>
         <v>28.55</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>3.67</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>24.78</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" si="3"/>
         <v>28.450000000000003</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>3.7</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>24.73</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="4"/>
         <v>28.43</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>3.73</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>24.68</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <f t="shared" si="5"/>
         <v>28.41</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>3.75</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>24.63</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <f t="shared" si="6"/>
         <v>28.38</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>3.78</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>24.59</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <f t="shared" si="7"/>
         <v>28.37</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>3.82</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>24.55</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <f t="shared" si="8"/>
         <v>28.37</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>3.85</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>24.5</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <f t="shared" si="9"/>
         <v>28.35</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="5">
         <v>3.86</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="5">
         <v>24.46</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="5">
         <f t="shared" si="10"/>
         <v>28.32</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="5">
         <v>3.91</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="5">
         <v>24.43</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="5">
         <f t="shared" si="11"/>
         <v>28.34</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="5">
         <f t="shared" si="12"/>
         <v>28.396999999999998</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="5">
         <f t="shared" si="13"/>
         <v>14.198499999999999</v>
       </c>
@@ -6588,114 +7066,114 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>400</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>6.37</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>26.92</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="2"/>
         <v>33.29</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>6.34</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>26.84</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
         <v>33.18</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>6.38</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>26.79</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="4"/>
         <v>33.17</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>6.42</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>26.73</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <f t="shared" si="5"/>
         <v>33.15</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>6.46</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>26.67</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <f t="shared" si="6"/>
         <v>33.130000000000003</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>6.5</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>26.6</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <f t="shared" si="7"/>
         <v>33.1</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>6.54</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>26.56</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <f t="shared" si="8"/>
         <v>33.1</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>6.6</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <v>26.51</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <f t="shared" si="9"/>
         <v>33.11</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <v>6.61</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <v>26.46</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="5">
         <f t="shared" si="10"/>
         <v>33.07</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="5">
         <v>6.64</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="5">
         <v>26.43</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="5">
         <f t="shared" si="11"/>
         <v>33.07</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="5">
         <f t="shared" si="12"/>
         <v>33.136999999999993</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="5">
         <f t="shared" si="13"/>
         <v>16.568499999999997</v>
       </c>
@@ -6729,114 +7207,114 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>500</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>27.79</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" si="2"/>
         <v>35.83</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>8.14</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>7</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
         <v>15.14</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>28.9</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>6.98</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="4"/>
         <v>35.879999999999995</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>28.96</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>6.9</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <f t="shared" si="5"/>
         <v>35.86</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>29.01</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>6.88</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f t="shared" si="6"/>
         <v>35.89</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>29.06</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>6.85</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <f t="shared" si="7"/>
         <v>35.909999999999997</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>29.09</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>6.8</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <f t="shared" si="8"/>
         <v>35.89</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>29.13</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <v>1.94</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <f t="shared" si="9"/>
         <v>31.07</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <v>33.979999999999997</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <v>1.92</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <f t="shared" si="10"/>
         <v>35.9</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="5">
         <v>34.03</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="5">
         <v>1.87</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="5">
         <f t="shared" si="11"/>
         <v>35.9</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="5">
         <f t="shared" si="12"/>
         <v>33.326999999999991</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="5">
         <f t="shared" si="13"/>
         <v>16.663499999999996</v>
       </c>
@@ -6870,98 +7348,98 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="21" thickBot="1">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>600</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>12.52</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>24.94</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <f t="shared" si="2"/>
         <v>37.46</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>12.61</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>24.88</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <f t="shared" si="3"/>
         <v>37.489999999999995</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>12.67</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>24.83</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <v>12.71</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
         <f t="shared" si="5"/>
         <v>12.71</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6">
         <f>AVERAGE(D11,G11,J11)</f>
         <v>37.483333333333327</v>
       </c>
-      <c r="AG11" s="9">
+      <c r="AG11" s="6">
         <f t="shared" si="13"/>
         <v>18.741666666666664</v>
       </c>
-      <c r="AI11" s="13">
+      <c r="AI11" s="8">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="AJ11" s="13">
+      <c r="AJ11" s="8">
         <f t="shared" si="1"/>
         <v>18.741666666666664</v>
       </c>
-      <c r="AK11" s="14">
+      <c r="AK11" s="9">
         <f t="shared" si="14"/>
         <v>7.4966666666666649E-4</v>
       </c>
-      <c r="AL11" s="13">
+      <c r="AL11" s="8">
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="AM11" s="15">
+      <c r="AM11" s="10">
         <f t="shared" si="16"/>
         <v>1.2494444444444444</v>
       </c>
-      <c r="AN11" s="16">
+      <c r="AN11" s="11">
         <f t="shared" si="17"/>
         <v>4.1648148148148148E-3</v>
       </c>
-      <c r="AO11" s="13">
+      <c r="AO11" s="8">
         <f t="shared" si="18"/>
         <v>3314.2543242006723</v>
       </c>
@@ -7029,8 +7507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9EA7F2-9247-824A-B6F3-85BC858DB314}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7048,48 +7526,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="6">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7484,9 +7962,8 @@
         <f t="shared" si="4"/>
         <v>1242.6093000918509</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0.10326785396389326</v>
+      <c r="I13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7526,84 +8003,84 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>0.03</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="10">
         <f t="shared" si="2"/>
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <f>SQRT(2)*D15*700/0.88</f>
         <v>3.3748278192994315E-2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>5.3931482502911062E-5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <f t="shared" si="6"/>
         <v>1.5980513789324666E-3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <f t="shared" si="4"/>
         <v>1271.6888813596081</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>-4.223286237571951E-8</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>60</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>34</v>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7611,28 +8088,28 @@
         <v>300</v>
       </c>
       <c r="B20">
-        <v>300</v>
+        <v>58</v>
       </c>
       <c r="C20">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>300</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E20">
-        <v>300</v>
+        <v>328.44424609999999</v>
       </c>
       <c r="F20">
-        <v>300</v>
+        <v>0.118485833</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>3.60749E-4</v>
       </c>
       <c r="H20">
-        <v>300</v>
+        <v>287.07468920000002</v>
       </c>
       <c r="I20">
-        <v>300</v>
+        <v>1.450751613</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7640,28 +8117,28 @@
         <v>270.10000000000002</v>
       </c>
       <c r="B21">
-        <v>270.10000000000002</v>
+        <v>57.4</v>
       </c>
       <c r="C21">
-        <v>270.10000000000002</v>
+        <v>3.82</v>
       </c>
       <c r="D21">
-        <v>270.10000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E21">
-        <v>270.10000000000002</v>
+        <v>294.47946000000002</v>
       </c>
       <c r="F21">
-        <v>270.10000000000002</v>
+        <v>0.117260117</v>
       </c>
       <c r="G21">
-        <v>270.10000000000002</v>
+        <v>3.9819500000000001E-4</v>
       </c>
       <c r="H21">
-        <v>270.10000000000002</v>
+        <v>316.87315799999999</v>
       </c>
       <c r="I21">
-        <v>270.10000000000002</v>
+        <v>1.37830042</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7669,28 +8146,28 @@
         <v>240.3</v>
       </c>
       <c r="B22">
-        <v>240.3</v>
+        <v>56.8</v>
       </c>
       <c r="C22">
-        <v>240.3</v>
+        <v>3.66</v>
       </c>
       <c r="D22">
-        <v>240.3</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="E22">
-        <v>240.3</v>
+        <v>260.42363519999998</v>
       </c>
       <c r="F22">
-        <v>240.3</v>
+        <v>0.11603440199999999</v>
       </c>
       <c r="G22">
-        <v>240.3</v>
+        <v>4.4556000000000001E-4</v>
       </c>
       <c r="H22">
-        <v>240.3</v>
+        <v>354.56552529999999</v>
       </c>
       <c r="I22">
-        <v>240.3</v>
+        <v>1.314507839</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7698,28 +8175,28 @@
         <v>210.2</v>
       </c>
       <c r="B23">
-        <v>210.2</v>
+        <v>56</v>
       </c>
       <c r="C23">
-        <v>210.2</v>
+        <v>3.58</v>
       </c>
       <c r="D23">
-        <v>210.2</v>
+        <v>0.2</v>
       </c>
       <c r="E23">
-        <v>210.2</v>
+        <v>225.26165399999999</v>
       </c>
       <c r="F23">
-        <v>210.2</v>
+        <v>0.114400114</v>
       </c>
       <c r="G23">
-        <v>210.2</v>
+        <v>5.0785399999999997E-4</v>
       </c>
       <c r="H23">
-        <v>210.2</v>
+        <v>404.13766329999999</v>
       </c>
       <c r="I23">
-        <v>210.2</v>
+        <v>1.28749625</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7727,28 +8204,28 @@
         <v>180.1</v>
       </c>
       <c r="B24">
-        <v>180.1</v>
+        <v>55</v>
       </c>
       <c r="C24">
-        <v>180.1</v>
+        <v>3.4</v>
       </c>
       <c r="D24">
-        <v>180.1</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E24">
-        <v>180.1</v>
+        <v>190.29335209999999</v>
       </c>
       <c r="F24">
-        <v>180.1</v>
+        <v>0.112357255</v>
       </c>
       <c r="G24">
-        <v>180.1</v>
+        <v>5.9044200000000005E-4</v>
       </c>
       <c r="H24">
-        <v>180.1</v>
+        <v>469.85909809999998</v>
       </c>
       <c r="I24">
-        <v>180.1</v>
+        <v>1.21868895</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7756,28 +8233,28 @@
         <v>150</v>
       </c>
       <c r="B25">
-        <v>150</v>
+        <v>53.6</v>
       </c>
       <c r="C25">
-        <v>150</v>
+        <v>3.16</v>
       </c>
       <c r="D25">
-        <v>150</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E25">
-        <v>150</v>
+        <v>155.161689</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>0.109497252</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>7.0569800000000005E-4</v>
       </c>
       <c r="H25">
-        <v>150</v>
+        <v>561.57641369999999</v>
       </c>
       <c r="I25">
-        <v>150</v>
+        <v>1.127298406</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7785,28 +8262,28 @@
         <v>120.2</v>
       </c>
       <c r="B26">
-        <v>120.2</v>
+        <v>51.6</v>
       </c>
       <c r="C26">
-        <v>120.2</v>
+        <v>2.82</v>
       </c>
       <c r="D26">
-        <v>120.2</v>
+        <v>0.107</v>
       </c>
       <c r="E26">
-        <v>120.2</v>
+        <v>120.433449</v>
       </c>
       <c r="F26">
-        <v>120.2</v>
+        <v>0.105411534</v>
       </c>
       <c r="G26">
-        <v>120.2</v>
+        <v>8.7526800000000001E-4</v>
       </c>
       <c r="H26">
-        <v>120.2</v>
+        <v>696.516077</v>
       </c>
       <c r="I26">
-        <v>120.2</v>
+        <v>0.99739305099999997</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7814,28 +8291,28 @@
         <v>90</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>47.4</v>
       </c>
       <c r="C27">
-        <v>90</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D27">
-        <v>90</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E27">
-        <v>90</v>
+        <v>85.269598869999996</v>
       </c>
       <c r="F27">
-        <v>90</v>
+        <v>9.6831525000000002E-2</v>
       </c>
       <c r="G27">
-        <v>90</v>
+        <v>1.1355930000000001E-3</v>
       </c>
       <c r="H27">
-        <v>90</v>
+        <v>903.67587739999999</v>
       </c>
       <c r="I27">
-        <v>90</v>
+        <v>0.80691754900000001</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7843,28 +8320,28 @@
         <v>60</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>1.42</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E28">
-        <v>60</v>
+        <v>53.337898279999997</v>
       </c>
       <c r="F28">
-        <v>60</v>
+        <v>7.8895222000000001E-2</v>
       </c>
       <c r="G28">
-        <v>60</v>
+        <v>1.4791590000000001E-3</v>
       </c>
       <c r="H28">
-        <v>60</v>
+        <v>1177.0771749999999</v>
       </c>
       <c r="I28">
-        <v>60</v>
+        <v>0.489076387</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7872,28 +8349,28 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>45</v>
+        <v>30.84</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>0.9</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E29">
-        <v>45</v>
+        <v>38.534162289999998</v>
       </c>
       <c r="F29">
-        <v>45</v>
+        <v>6.3001776999999995E-2</v>
       </c>
       <c r="G29">
-        <v>45</v>
+        <v>1.6349590000000001E-3</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>1301.0590709999999</v>
       </c>
       <c r="I29">
-        <v>45</v>
+        <v>0.30947312500000002</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7901,28 +8378,28 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>0.38</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>26.125825809999998</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>4.0877612000000001E-2</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>1.564644E-3</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>1245.1040029999999</v>
       </c>
       <c r="I30">
-        <v>30</v>
+        <v>0.130769205</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7930,57 +8407,57 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>7.46</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>0.02</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>16.602431289999998</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>1.523973E-2</v>
       </c>
       <c r="G31">
-        <v>15</v>
+        <v>9.1792200000000005E-4</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>730.45876299999998</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>3.8653910000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" thickBot="1">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>0.02</v>
       </c>
-      <c r="B32" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0.02</v>
+      <c r="B32" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2.2498852E-2</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4.69858E-5</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2.0883630000000002E-3</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1661.8661520000001</v>
+      </c>
+      <c r="I32" s="17">
+        <v>-4.6159499999999997E-8</v>
       </c>
     </row>
     <row r="51" spans="12:12">

--- a/5th/1_1/data/1-1.xlsx
+++ b/5th/1_1/data/1-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/Class/ClassExperiment/5th/1_1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryoga\Documents\ClassExperiment\5th\1_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537B4621-9E7D-DD49-B225-C678348789B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E3230-A7AD-4F6D-B571-A708086B55B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="1" xr2:uid="{BF469469-80EF-BB4B-A8E2-E66513E50EB9}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" activeTab="1" xr2:uid="{BF469469-80EF-BB4B-A8E2-E66513E50EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>電流I[mA]</t>
     <rPh sb="0" eb="2">
@@ -144,6 +144,8 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>e</t>
     </r>
@@ -172,6 +174,8 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>s</t>
     </r>
@@ -220,6 +224,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>e</t>
     </r>
@@ -248,6 +254,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>s</t>
     </r>
@@ -333,6 +341,59 @@
     <t>jh</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K1分子</t>
+    <rPh sb="2" eb="4">
+      <t>ブンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K2分子</t>
+    <rPh sb="2" eb="4">
+      <t>ブンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分母</t>
+    <rPh sb="0" eb="2">
+      <t>ブンボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -371,16 +432,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +549,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5711,15 +5781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>933822</xdr:colOff>
+      <xdr:colOff>580037</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>239058</xdr:rowOff>
+      <xdr:rowOff>157415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>952499</xdr:colOff>
+      <xdr:colOff>598714</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>241299</xdr:rowOff>
+      <xdr:rowOff>159656</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5784,16 +5854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>18677</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>454106</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>2241</xdr:rowOff>
+      <xdr:rowOff>56670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6120,120 +6190,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CE8CCF-90B9-A442-880C-CDD6E17304AF}">
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AS15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3:AO11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
     <col min="2" max="31" width="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:45">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:41" ht="21" thickBot="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:45" ht="20.25" thickBot="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15" t="s">
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="13" t="s">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="AI2" s="6"/>
@@ -6244,8 +6314,8 @@
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:41" ht="21" thickBot="1">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:45" ht="20.25" thickBot="1">
+      <c r="A3" s="15"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
@@ -6336,8 +6406,8 @@
       <c r="AE3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
       <c r="AI3" s="6" t="s">
         <v>14</v>
       </c>
@@ -6359,8 +6429,17 @@
       <c r="AO3" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="AQ3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS3" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:45">
       <c r="A4" s="5">
         <v>50</v>
       </c>
@@ -6500,8 +6579,12 @@
         <f>AN4/(4*PI()*10^-7)</f>
         <v>16886.339462050095</v>
       </c>
+      <c r="AQ4" s="1">
+        <f>AM4</f>
+        <v>0.53049999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:45">
       <c r="A5" s="5">
         <v>100</v>
       </c>
@@ -6641,8 +6724,12 @@
         <f t="shared" ref="AO5:AO11" si="18">AN5/(4*PI()*10^-7)</f>
         <v>10802.907020600884</v>
       </c>
+      <c r="AQ5" s="1">
+        <f>AM7</f>
+        <v>0.70003333333333329</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:45">
       <c r="A6" s="5">
         <v>150</v>
       </c>
@@ -6782,8 +6869,12 @@
         <f t="shared" si="18"/>
         <v>7441.7314613257104</v>
       </c>
+      <c r="AQ6" s="1">
+        <f>AM10</f>
+        <v>1.1108999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:45">
       <c r="A7" s="5">
         <v>200</v>
       </c>
@@ -6924,7 +7015,7 @@
         <v>5570.688266454823</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:45">
       <c r="A8" s="5">
         <v>300</v>
       </c>
@@ -7065,7 +7156,7 @@
         <v>5021.6921322006128</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:45">
       <c r="A9" s="5">
         <v>400</v>
       </c>
@@ -7206,7 +7297,7 @@
         <v>4394.9311243634456</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:45">
       <c r="A10" s="5">
         <v>500</v>
       </c>
@@ -7347,7 +7438,7 @@
         <v>3536.1045256157299</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="21" thickBot="1">
+    <row r="11" spans="1:45" ht="20.25" thickBot="1">
       <c r="A11" s="6">
         <v>600</v>
       </c>
@@ -7444,7 +7535,7 @@
         <v>3314.2543242006723</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:45">
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="4"/>
@@ -7453,7 +7544,7 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="2"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:45">
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="4"/>
@@ -7462,7 +7553,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="2"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:45">
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="4"/>
@@ -7471,7 +7562,8 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:45" ht="20.25" thickBot="1">
+      <c r="I15" s="6"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="4"/>
@@ -7499,33 +7591,34 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9EA7F2-9247-824A-B6F3-85BC858DB314}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" thickBot="1">
+    <row r="1" spans="1:20" ht="20.25" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -7542,7 +7635,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="21" thickBot="1">
+    <row r="2" spans="1:20" ht="20.25" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -7570,8 +7663,17 @@
       <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>298</v>
       </c>
@@ -7606,8 +7708,16 @@
         <f t="shared" ref="I3:I15" si="1">(C3-B3^2*(10^-1*10^-6 + 5^-1*10^-3) )/2.2932</f>
         <v>1.1029630102040815</v>
       </c>
+      <c r="R3">
+        <f>F3</f>
+        <v>0.1188944046086903</v>
+      </c>
+      <c r="S3">
+        <f>(B18^2*I3-B1^2*I20)/B1*B18^2-B18*B1^2</f>
+        <v>-125247.27809510208</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>270.5</v>
       </c>
@@ -7642,8 +7752,12 @@
         <f t="shared" si="1"/>
         <v>1.0644028253096112</v>
       </c>
+      <c r="R4">
+        <f>F8</f>
+        <v>0.11006925292639576</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>241.6</v>
       </c>
@@ -7678,8 +7792,12 @@
         <f t="shared" si="1"/>
         <v>1.0249534815977674</v>
       </c>
+      <c r="R5">
+        <f>F14</f>
+        <v>1.6228473371330512E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>209.3</v>
       </c>
@@ -7715,7 +7833,7 @@
         <v>0.98709397828362111</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>179.5</v>
       </c>
@@ -7751,7 +7869,7 @@
         <v>0.94995086298622</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>150</v>
       </c>
@@ -7786,8 +7904,14 @@
         <f t="shared" si="1"/>
         <v>0.87065951465201474</v>
       </c>
+      <c r="Q8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>120</v>
       </c>
@@ -7822,8 +7946,14 @@
         <f t="shared" si="1"/>
         <v>0.79651376940519791</v>
       </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9">
+        <v>60</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>90</v>
       </c>
@@ -7858,8 +7988,15 @@
         <f t="shared" si="1"/>
         <v>0.64531658817373105</v>
       </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10">
+        <f>I9</f>
+        <v>0.79651376940519791</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>60</v>
       </c>
@@ -7894,8 +8031,15 @@
         <f t="shared" si="1"/>
         <v>0.42716493214285717</v>
       </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11">
+        <f>I27</f>
+        <v>0.80691754900000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>45</v>
       </c>
@@ -7931,7 +8075,7 @@
         <v>0.24225031410692482</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>30</v>
       </c>
@@ -7965,8 +8109,15 @@
       <c r="I13" t="s">
         <v>37</v>
       </c>
+      <c r="Q13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13">
+        <f>(R9^2*R10-R8^2*R11)</f>
+        <v>850.15569735871236</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>15</v>
       </c>
@@ -8001,8 +8152,15 @@
         <f t="shared" si="1"/>
         <v>4.8974086691086702E-3</v>
       </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14">
+        <f>R8*R11-R9*R10</f>
+        <v>-7.4449487143118702</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="21" thickBot="1">
+    <row r="15" spans="1:20" ht="20.25" thickBot="1">
       <c r="A15" s="6">
         <v>0.03</v>
       </c>
@@ -8036,8 +8194,33 @@
         <f t="shared" si="1"/>
         <v>-4.223286237571951E-8</v>
       </c>
+      <c r="Q15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15">
+        <f>R8*R9^2-R9*R8^2</f>
+        <v>30000</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="21" thickBot="1">
+    <row r="16" spans="1:20">
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16">
+        <f>R13/R15</f>
+        <v>2.833852324529041E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="Q17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17">
+        <f>R14/R15</f>
+        <v>-2.4816495714372901E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="20.25" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -8054,7 +8237,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="21" thickBot="1">
+    <row r="19" spans="1:18" ht="20.25" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -8083,7 +8266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>300</v>
       </c>
@@ -8112,7 +8295,7 @@
         <v>1.450751613</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>270.10000000000002</v>
       </c>
@@ -8141,7 +8324,7 @@
         <v>1.37830042</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>240.3</v>
       </c>
@@ -8170,7 +8353,7 @@
         <v>1.314507839</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>210.2</v>
       </c>
@@ -8199,7 +8382,7 @@
         <v>1.28749625</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>180.1</v>
       </c>
@@ -8228,7 +8411,7 @@
         <v>1.21868895</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>150</v>
       </c>
@@ -8257,7 +8440,7 @@
         <v>1.127298406</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>120.2</v>
       </c>
@@ -8286,7 +8469,7 @@
         <v>0.99739305099999997</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>90</v>
       </c>
@@ -8315,7 +8498,7 @@
         <v>0.80691754900000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>60</v>
       </c>
@@ -8344,7 +8527,7 @@
         <v>0.489076387</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>45</v>
       </c>
@@ -8373,7 +8556,7 @@
         <v>0.30947312500000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>30</v>
       </c>
@@ -8402,7 +8585,7 @@
         <v>0.130769205</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>15</v>
       </c>
@@ -8431,7 +8614,7 @@
         <v>3.8653910000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21" thickBot="1">
+    <row r="32" spans="1:18" ht="20.25" thickBot="1">
       <c r="A32" s="6">
         <v>0.02</v>
       </c>
@@ -8447,7 +8630,7 @@
       <c r="E32" s="6">
         <v>2.2498852E-2</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="12">
         <v>4.69858E-5</v>
       </c>
       <c r="G32" s="6">
@@ -8456,7 +8639,7 @@
       <c r="H32" s="6">
         <v>1661.8661520000001</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="12">
         <v>-4.6159499999999997E-8</v>
       </c>
     </row>
@@ -8468,6 +8651,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/5th/1_1/data/1-1.xlsx
+++ b/5th/1_1/data/1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryoga\Documents\ClassExperiment\5th\1_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E3230-A7AD-4F6D-B571-A708086B55B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACA46BD-5C4B-4314-B00A-9D95575F7235}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" activeTab="1" xr2:uid="{BF469469-80EF-BB4B-A8E2-E66513E50EB9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>電流I[mA]</t>
     <rPh sb="0" eb="2">
@@ -394,6 +394,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ヒステリシス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渦電流</t>
+    <rPh sb="0" eb="1">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>デンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -552,6 +566,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,9 +583,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,41 +615,21 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12224125565173109"/>
+          <c:y val="3.7871979696064484E-2"/>
+          <c:w val="0.74878094665471717"/>
+          <c:h val="0.79367253289264117"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -652,8 +646,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -739,7 +735,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-5CAC-7B45-8D28-53334C4B5EC1}"/>
@@ -758,7 +754,7 @@
         <c:axId val="530874927"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -775,8 +771,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -862,7 +860,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-5CAC-7B45-8D28-53334C4B5EC1}"/>
@@ -1006,6 +1004,7 @@
         <c:axId val="530874927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1135,6 +1134,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>比透磁率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ja-JP"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1200,10 +1263,22 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70776206733953917"/>
+          <c:y val="4.4605379067555018E-2"/>
+          <c:w val="0.16161287812855638"/>
+          <c:h val="0.11435013827299353"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1246,12 +1321,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1302,7 +1372,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1319,8 +1389,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1436,7 +1508,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-19C1-CD4D-99EA-9B4BD87B5CD7}"/>
@@ -1455,7 +1527,7 @@
         <c:axId val="503450095"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1472,8 +1544,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1583,7 +1657,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-19C1-CD4D-99EA-9B4BD87B5CD7}"/>
@@ -1994,9 +2068,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68764102657859649"/>
+          <c:x val="0.65119711986998363"/>
           <c:y val="4.1930060064445919E-2"/>
-          <c:w val="0.20201350066914703"/>
+          <c:w val="0.23845742623827748"/>
           <c:h val="0.11951273441270691"/>
         </c:manualLayout>
       </c:layout>
@@ -2102,7 +2176,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2111,8 +2185,10 @@
             <c:v>50Hz</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2222,7 +2298,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4F55-5B4A-8E38-47A702490A2C}"/>
@@ -2236,8 +2312,10 @@
             <c:v>60Hz</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2347,7 +2425,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4F55-5B4A-8E38-47A702490A2C}"/>
@@ -2631,9 +2709,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88470718158589312"/>
+          <c:x val="0.85040706920134224"/>
           <c:y val="5.4298177104923483E-2"/>
-          <c:w val="7.5123818150623328E-2"/>
+          <c:w val="0.1094239756847238"/>
           <c:h val="0.12046064333472636"/>
         </c:manualLayout>
       </c:layout>
@@ -2739,7 +2817,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2756,8 +2834,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2873,7 +2953,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4B9A-7A47-A388-35F1580233EE}"/>
@@ -2892,7 +2972,7 @@
         <c:axId val="503450095"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2909,8 +2989,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3020,7 +3102,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4B9A-7A47-A388-35F1580233EE}"/>
@@ -3431,9 +3513,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68764102657859649"/>
+          <c:x val="0.61689699683179622"/>
           <c:y val="4.1930060064445919E-2"/>
-          <c:w val="0.20316410536245899"/>
+          <c:w val="0.27390808883664347"/>
           <c:h val="0.12098405604306368"/>
         </c:manualLayout>
       </c:layout>
@@ -5740,13 +5822,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>10672</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>251529</xdr:rowOff>
+      <xdr:colOff>10673</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>10672</xdr:rowOff>
     </xdr:to>
@@ -6192,8 +6274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CE8CCF-90B9-A442-880C-CDD6E17304AF}">
   <dimension ref="A1:AS15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="AJ1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
@@ -6210,100 +6292,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
     </row>
     <row r="2" spans="1:45" ht="20.25" thickBot="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16" t="s">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="AI2" s="6"/>
@@ -6315,7 +6397,7 @@
       <c r="AO2" s="6"/>
     </row>
     <row r="3" spans="1:45" ht="20.25" thickBot="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
@@ -6406,8 +6488,8 @@
       <c r="AE3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
       <c r="AI3" s="6" t="s">
         <v>14</v>
       </c>
@@ -6432,10 +6514,10 @@
       <c r="AQ3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AR3" s="18" t="s">
+      <c r="AR3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AS3" s="18" t="s">
+      <c r="AS3" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7600,8 +7682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9EA7F2-9247-824A-B6F3-85BC858DB314}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
@@ -7666,10 +7748,10 @@
       <c r="R2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7992,8 +8074,7 @@
         <v>42</v>
       </c>
       <c r="R10">
-        <f>I9</f>
-        <v>0.79651376940519791</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8035,8 +8116,7 @@
         <v>43</v>
       </c>
       <c r="R11">
-        <f>I27</f>
-        <v>0.80691754900000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -8114,7 +8194,7 @@
       </c>
       <c r="R13">
         <f>(R9^2*R10-R8^2*R11)</f>
-        <v>850.15569735871236</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -8157,7 +8237,7 @@
       </c>
       <c r="R14">
         <f>R8*R11-R9*R10</f>
-        <v>-7.4449487143118702</v>
+        <v>2.1999999999999957</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.25" thickBot="1">
@@ -8208,7 +8288,7 @@
       </c>
       <c r="R16">
         <f>R13/R15</f>
-        <v>2.833852324529041E-2</v>
+        <v>9.9333333333333339E-3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -8217,7 +8297,7 @@
       </c>
       <c r="R17">
         <f>R14/R15</f>
-        <v>-2.4816495714372901E-4</v>
+        <v>7.3333333333333196E-5</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="20.25" thickBot="1">
@@ -8265,6 +8345,13 @@
       <c r="I19" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="Q19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19">
+        <f>R16*R8</f>
+        <v>0.4966666666666667</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
@@ -8294,6 +8381,13 @@
       <c r="I20">
         <v>1.450751613</v>
       </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20">
+        <f>R17*R8^2</f>
+        <v>0.18333333333333299</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
@@ -8322,6 +8416,10 @@
       </c>
       <c r="I21">
         <v>1.37830042</v>
+      </c>
+      <c r="R21">
+        <f>R19+R20</f>
+        <v>0.67999999999999972</v>
       </c>
     </row>
     <row r="22" spans="1:18">
